--- a/DATA/schedule.xlsx
+++ b/DATA/schedule.xlsx
@@ -11,15 +11,14 @@
     <sheet name="Tuesday" sheetId="2" r:id="rId2"/>
     <sheet name="Wednesday" sheetId="3" r:id="rId3"/>
     <sheet name="Thursday" sheetId="4" r:id="rId4"/>
-    <sheet name="Sunday" sheetId="5" r:id="rId5"/>
-    <sheet name="All Assignments" sheetId="6" r:id="rId6"/>
+    <sheet name="All Assignments" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="63">
   <si>
     <t>Monday - [Insert Date]</t>
   </si>
@@ -42,43 +41,133 @@
     <t>9:30</t>
   </si>
   <si>
-    <t>10:30</t>
-  </si>
-  <si>
     <t>Verification</t>
   </si>
   <si>
     <t>Comments / Late</t>
   </si>
   <si>
-    <t>Ref1</t>
-  </si>
-  <si>
-    <t>TBD</t>
+    <t>Aina, Ayomide</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Ref2</t>
-  </si>
-  <si>
-    <t>Ref3</t>
-  </si>
-  <si>
-    <t>Ref4</t>
-  </si>
-  <si>
-    <t>Ref5</t>
-  </si>
-  <si>
-    <t>Ref6</t>
-  </si>
-  <si>
-    <t>Ref7</t>
-  </si>
-  <si>
-    <t>Ref8</t>
+    <t>Arne, Stephen</t>
+  </si>
+  <si>
+    <t>Audyatis, Nolan</t>
+  </si>
+  <si>
+    <t>Burke, Collin</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Daily, Meade</t>
+  </si>
+  <si>
+    <t>Dion, Andrew</t>
+  </si>
+  <si>
+    <t>Drake, Christopher</t>
+  </si>
+  <si>
+    <t>Dullaghan, Killian</t>
+  </si>
+  <si>
+    <t>Fei, Chaz</t>
+  </si>
+  <si>
+    <t>Finn, Daniel</t>
+  </si>
+  <si>
+    <t>Frost, Brennan</t>
+  </si>
+  <si>
+    <t>Galluci, Drew</t>
+  </si>
+  <si>
+    <t>Garcia, Ivanelisse</t>
+  </si>
+  <si>
+    <t>Good, Brian</t>
+  </si>
+  <si>
+    <t>Iannuzzi, Mike</t>
+  </si>
+  <si>
+    <t>Irura, Reuben</t>
+  </si>
+  <si>
+    <t>Jack Desmond</t>
+  </si>
+  <si>
+    <t>Kaye, Andrew</t>
+  </si>
+  <si>
+    <t>Kevin Shang</t>
+  </si>
+  <si>
+    <t>Lang, Timmy</t>
+  </si>
+  <si>
+    <t>Luc segall</t>
+  </si>
+  <si>
+    <t>Luca vargish</t>
+  </si>
+  <si>
+    <t>Mclaughlin, Hayden</t>
+  </si>
+  <si>
+    <t>Modi, Naman</t>
+  </si>
+  <si>
+    <t>Nguyen, Dillon</t>
+  </si>
+  <si>
+    <t>Oman, Daniel</t>
+  </si>
+  <si>
+    <t>Pothanaboyina, Aryan</t>
+  </si>
+  <si>
+    <t>Quinzani, Nick</t>
+  </si>
+  <si>
+    <t>Ricupero, Woody</t>
+  </si>
+  <si>
+    <t>Roll, Tate</t>
+  </si>
+  <si>
+    <t>Roos, Zachary</t>
+  </si>
+  <si>
+    <t>Shawn Maple</t>
+  </si>
+  <si>
+    <t>Shea, Jack</t>
+  </si>
+  <si>
+    <t>Sheehan, Cameron</t>
+  </si>
+  <si>
+    <t>Varsha Ravichandran</t>
+  </si>
+  <si>
+    <t>Veronis, Nicholas</t>
+  </si>
+  <si>
+    <t>Wasser, David</t>
   </si>
   <si>
     <t>Tuesday - [Insert Date]</t>
@@ -90,9 +179,6 @@
     <t>Thursday - [Insert Date]</t>
   </si>
   <si>
-    <t>Sunday - [Insert Date]</t>
-  </si>
-  <si>
     <t>All Assignments - [Insert Date]</t>
   </si>
   <si>
@@ -108,34 +194,19 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t>Sunday</t>
+    <t>6:30, 7:30, 8:30, 9:30</t>
   </si>
   <si>
     <t>6:30, 7:30, 8:30</t>
   </si>
   <si>
-    <t>6:30, 7:30, 8:30, 9:30, 10:30</t>
-  </si>
-  <si>
-    <t>9:30, 10:30</t>
-  </si>
-  <si>
-    <t>7:30, 8:30</t>
-  </si>
-  <si>
-    <t>6:30, 7:30, 8:30, 9:30</t>
+    <t>7:30, 8:30, 9:30</t>
+  </si>
+  <si>
+    <t>6:30, 7:30, 9:30</t>
   </si>
   <si>
     <t>8:30, 9:30</t>
-  </si>
-  <si>
-    <t>7:30, 8:30, 9:30</t>
-  </si>
-  <si>
-    <t>6:30, 7:30</t>
-  </si>
-  <si>
-    <t>7:30, 8:30, 9:30, 10:30</t>
   </si>
 </sst>
 </file>
@@ -533,15 +604,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="2" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="25" customHeight="1">
@@ -581,11 +652,11 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="20" customHeight="1">
@@ -603,238 +674,838 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -842,20 +1513,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="2" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -890,11 +1561,11 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="20" customHeight="1">
@@ -912,238 +1583,838 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1151,20 +2422,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="2" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1199,11 +2470,11 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="20" customHeight="1">
@@ -1221,238 +2492,838 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1460,20 +3331,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="2" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1508,11 +3379,11 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="20" customHeight="1">
@@ -1530,238 +3401,838 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1769,518 +4240,674 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="25" customHeight="1">
+    <row r="1" spans="1:5" ht="25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="20" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L2:L3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="6" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
+      <c r="E34" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
